--- a/csv/Nulls.xlsx
+++ b/csv/Nulls.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="38">
   <si>
     <t>No Classification</t>
   </si>
@@ -102,6 +102,42 @@
   </si>
   <si>
     <t>genre</t>
+  </si>
+  <si>
+    <t>Author Nulls</t>
+  </si>
+  <si>
+    <t>No Subject Author</t>
+  </si>
+  <si>
+    <t>Work Nulls</t>
+  </si>
+  <si>
+    <t>No Subject Work</t>
+  </si>
+  <si>
+    <t>Record 1</t>
+  </si>
+  <si>
+    <t>Record 13</t>
+  </si>
+  <si>
+    <t>Record 16</t>
+  </si>
+  <si>
+    <t>Record 18</t>
+  </si>
+  <si>
+    <t>Record 28</t>
+  </si>
+  <si>
+    <t>Record 30</t>
+  </si>
+  <si>
+    <t>Subject Term Nulls</t>
+  </si>
+  <si>
+    <t>No Subject Terms</t>
   </si>
 </sst>
 </file>
@@ -926,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102:B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1213,6 +1249,658 @@
         <v>24</v>
       </c>
     </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B67" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>29</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>29</v>
+      </c>
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>29</v>
+      </c>
+      <c r="B72" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>29</v>
+      </c>
+      <c r="B74" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>29</v>
+      </c>
+      <c r="B76" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B77" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>29</v>
+      </c>
+      <c r="B80" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>29</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>29</v>
+      </c>
+      <c r="B86" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B89" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>29</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>29</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>29</v>
+      </c>
+      <c r="B94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B95" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>29</v>
+      </c>
+      <c r="B96" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B97" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>29</v>
+      </c>
+      <c r="B98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="5">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>37</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>37</v>
+      </c>
+      <c r="B103" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>37</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>37</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>37</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>37</v>
+      </c>
+      <c r="B107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>37</v>
+      </c>
+      <c r="B108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>37</v>
+      </c>
+      <c r="B109" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>37</v>
+      </c>
+      <c r="B110" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>37</v>
+      </c>
+      <c r="B111" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>37</v>
+      </c>
+      <c r="B112" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>37</v>
+      </c>
+      <c r="B113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>37</v>
+      </c>
+      <c r="B114" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>37</v>
+      </c>
+      <c r="B115" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>37</v>
+      </c>
+      <c r="B116" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>37</v>
+      </c>
+      <c r="B117" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>37</v>
+      </c>
+      <c r="B118" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>37</v>
+      </c>
+      <c r="B120" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>37</v>
+      </c>
+      <c r="B121" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>2010</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
